--- a/data/trans_bre/VUL_OTRO-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,58%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,78; 1,08</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 0,81</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 9,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,24; 266,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-32,19%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 2,16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,05</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 0,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,6; 150,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-27,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,7%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,37; 2,22</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 0,69</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 0,75</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 21,29</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 253,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,74; 62,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-73,76%</t>
+          <t>-88,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>-33,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>-46,04%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,32</t>
+          <t>-2,54; -0,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 9,33</t>
+          <t>-1,66; 0,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,76</t>
+          <t>-7,79; 0,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -44,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,6; 310,25</t>
+          <t>-100,0; 383,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,31; 32,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,13%</t>
+          <t>94,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-32,19%</t>
+          <t>231,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-70,21%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,39</t>
+          <t>-0,36; 1,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,73</t>
+          <t>-0,19; 1,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>-17,4; -0,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-82,26; 930,78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-83,12; 132,91</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,69; 37,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>109,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-44,7%</t>
+          <t>285,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>701,71%</t>
+          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,12</t>
+          <t>-0,38; 2,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,85</t>
+          <t>-0,09; 2,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,77</t>
+          <t>-4,17; 7,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 525,58</t>
+          <t>-74,28; 1292,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-93,26; 66,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1006,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-29,26%</t>
+          <t>136,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-46,04%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-83,3%</t>
+          <t>230,03%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,92</t>
+          <t>-0,19; 1,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 1,14</t>
+          <t>-1,1; 1,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; -0,51</t>
+          <t>5,08; 19,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 274,38</t>
+          <t>-69,51; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 38,52</t>
+          <t>-73,48; 370,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-96,56; -41,57</t>
+          <t>43,8; 753,84</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,62</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>125,56%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-70,21%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>-0,92%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,36</t>
+          <t>-0,16; 0,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -0,85</t>
+          <t>-0,56; 0,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,17</t>
+          <t>-2,59; 1,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,16; 155,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-94,97; 36,23</t>
+          <t>-51,4; 84,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 831,35</t>
+          <t>-38,66; 44,32</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>167,66%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>24,27%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>50,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 1,77</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 8,13</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 1,5</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-95,1; —</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-65,31; 627,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>11,79</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-8,0%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>230,03%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>103,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 1,19</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>5,08; 19,37</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 1,3</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-77,59; 209,26</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>38,66; 728,14</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-53,8; 885,68</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-4,11%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,46%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>19,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 0,41</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 2,0</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 0,37</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-47,86; 76,69</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-33,96; 44,84</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-30,37; 97,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/VUL_OTRO-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-78,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,08</t>
+          <t>-2,84; 0,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 9,0</t>
+          <t>-4,81; 8,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,24; 266,19</t>
+          <t>-58,63; 256,43</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 2,05</t>
+          <t>-4,16; 1,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,6; 150,04</t>
+          <t>-85,19; 115,06</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,22</t>
+          <t>0,25; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 0,75</t>
+          <t>-5,08; 0,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,74; 62,46</t>
+          <t>-90,42; 93,23</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-88,63%</t>
+          <t>-83,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; -0,5</t>
+          <t>-2,33; -0,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,92</t>
+          <t>-7,91; 1,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -44,76</t>
+          <t>-100,0; -8,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,31; 32,2</t>
+          <t>-80,0; 36,45</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>225,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,21</t>
+          <t>-0,03; 1,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,4; -0,49</t>
+          <t>-17,68; -0,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-82,26; 930,78</t>
+          <t>-67,74; 1811,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-94,69; 37,57</t>
+          <t>-94,71; 68,34</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>109,98%</t>
+          <t>123,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,18</t>
+          <t>-0,22; 1,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 7,06</t>
+          <t>-3,52; 8,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,28; 1292,76</t>
+          <t>-63,1; 1641,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1006,53</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>136,85%</t>
+          <t>-24,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,63</t>
+          <t>-1,63; 0,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,08; 19,33</t>
+          <t>5,95; 19,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-69,51; —</t>
+          <t>-88,72; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,8; 753,84</t>
+          <t>49,29; 742,09</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 0,57</t>
+          <t>-0,31; 0,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,92</t>
+          <t>-2,33; 2,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 155,29</t>
+          <t>-40,98; 94,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 44,32</t>
+          <t>-35,21; 48,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_OTRO-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_OTRO-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,55</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-63,28%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-78,95%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-63,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>27,58%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,81; 8,84</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 0,81</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-2,84; 0,14</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,41; 0,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; 8,84</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-58,63; 256,43</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-58,63; 256,43</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,55</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-32,19%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-32,19%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-4,16; 1,8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 2,16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,85</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 1,8</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-85,19; 115,06</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-85,19; 115,06</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,69</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-44,7%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-27,91%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-27,91%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-44,7%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-5,08; 0,96</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 0,69</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,25; 1,46</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 0,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,08; 0,96</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-90,42; 93,23</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 253,69</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 253,69</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-90,42; 93,23</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-1,25</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,29</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-46,04%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-33,11%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-83,23%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-33,11%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-46,04%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-7,91; 1,29</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 0,85</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-2,33; -0,44</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 0,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 1,29</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-80,0; 36,45</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 383,09</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-100,0; -8,73</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 383,09</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-80,0; 36,45</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-7,62</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,67</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,62</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-70,21%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>231,22%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>225,04%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>231,22%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-70,21%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-17,68; -0,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-0,03; 1,75</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 1,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,68; -0,35</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-94,71; 68,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-67,74; 1811,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-94,71; 68,34</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>24,27%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>285,37%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>123,44%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>285,37%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-3,52; 8,04</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 2,03</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-0,22; 1,43</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 2,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 8,04</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-63,1; 1641,11</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>11,79</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-0,19</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>11,79</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>230,03%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-24,45%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>12,35%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>230,03%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,95; 19,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 1,78</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-1,63; 0,6</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 1,78</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 19,42</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>49,29; 742,09</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-73,48; 370,06</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-88,72; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-73,48; 370,06</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>49,29; 742,09</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>5,92%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-6,21%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-0,92%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-2,33; 2,15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 0,46</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-0,31; 0,35</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 0,46</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 2,15</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-35,21; 48,87</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-51,4; 84,37</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-40,98; 94,09</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-51,4; 84,37</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-35,21; 48,87</t>
         </is>
       </c>
     </row>
